--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Scrum Master</t>
   </si>
   <si>
-    <t>Das Hauptmenü der App anzeigen, inkl. Daily Events</t>
-  </si>
-  <si>
     <t>Hauptmenü anzeigen</t>
   </si>
   <si>
@@ -183,15 +180,6 @@
     <t>anzeigen Live Up aktivitäen</t>
   </si>
   <si>
-    <t xml:space="preserve">Erinnerung Medikation </t>
-  </si>
-  <si>
-    <t>Auflisten von allen verschriebenen Medikamenten, dosis, einnahme, ect</t>
-  </si>
-  <si>
-    <t>anzeigen der medikation</t>
-  </si>
-  <si>
     <t>Kalender mit Terminübersicht</t>
   </si>
   <si>
@@ -259,6 +247,24 @@
   </si>
   <si>
     <t>MVP Pattern implementieren, mit PatientenApp verknüpfen</t>
+  </si>
+  <si>
+    <t>Das Hauptmenü der App anzeigen, inkl. Daily Events User kann navigieren; user werden daily events angezeigt</t>
+  </si>
+  <si>
+    <t>Auflisten von allen verschriebenen Medikamenten, dosis: user kann medikation ansehen</t>
+  </si>
+  <si>
+    <t>Erinnerung Medikation : Patient wird über medikation erinnert</t>
+  </si>
+  <si>
+    <t>anzeigen der medikation: User wird Medikation angezeit</t>
+  </si>
+  <si>
+    <t>ver high</t>
+  </si>
+  <si>
+    <t>created</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -331,6 +337,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -635,7 +644,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +667,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -669,57 +678,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -729,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -789,56 +798,68 @@
       <c r="E2" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,50 +867,59 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,50 +927,59 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,16 +987,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
         <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -965,16 +1007,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
         <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -993,16 +1038,19 @@
       <c r="E14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1010,53 +1058,24 @@
       <c r="E15">
         <v>55</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
         <f>180 - SUM(E2:E15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1068,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,19 +1153,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1163,19 +1182,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1192,19 +1211,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1221,19 +1240,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1250,19 +1269,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1279,22 +1298,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1308,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1332,7 +1351,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>created</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1087,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,8 +1176,14 @@
       <c r="I2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.1</v>
       </c>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>almost done</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -270,7 +270,7 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>almost done</t>
+    <t>review</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1179,9 @@
       <c r="I2">
         <v>6</v>
       </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
       <c r="K2">
         <v>6</v>
       </c>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -246,9 +246,6 @@
     <t>MVP für Medikation erstellen</t>
   </si>
   <si>
-    <t>MVP Pattern implementieren, mit PatientenApp verknüpfen</t>
-  </si>
-  <si>
     <t>Das Hauptmenü der App anzeigen, inkl. Daily Events User kann navigieren; user werden daily events angezeigt</t>
   </si>
   <si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>MVP Pattern emergency  implementieren, mit PatientenApp verknüpfen</t>
   </si>
 </sst>
 </file>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -805,7 +808,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -836,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -845,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -856,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -885,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -985,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1025,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>84</v>
@@ -1200,7 +1203,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1216,6 +1219,9 @@
       </c>
       <c r="I3">
         <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1246,6 +1252,9 @@
       <c r="I4">
         <v>6</v>
       </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1275,6 +1284,9 @@
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1304,6 +1316,9 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1328,10 +1343,13 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1361,6 +1379,9 @@
       </c>
       <c r="I8">
         <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1373,7 +1394,14 @@
         <f>SUM(I2:I8)</f>
         <v>30</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10">
+        <f>SUM(J2:J9)</f>
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K2:K9)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -258,22 +258,22 @@
     <t>anzeigen der medikation: User wird Medikation angezeit</t>
   </si>
   <si>
-    <t>ver high</t>
-  </si>
-  <si>
     <t>created</t>
   </si>
   <si>
     <t>in progress</t>
   </si>
   <si>
-    <t>review</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>MVP Pattern emergency  implementieren, mit PatientenApp verknüpfen</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,8 +807,11 @@
       <c r="E2" s="1">
         <v>30</v>
       </c>
+      <c r="G2" s="1">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -828,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -848,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -968,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -988,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1008,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1048,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1068,7 +1071,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1112,7 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" customWidth="1"/>
@@ -1189,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1203,7 +1206,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1220,8 +1223,11 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1253,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1284,8 +1290,14 @@
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1316,8 +1328,14 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1343,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1379,6 +1397,9 @@
       </c>
       <c r="I8">
         <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
       </c>
       <c r="L8" t="s">
         <v>82</v>
@@ -1396,11 +1417,11 @@
       </c>
       <c r="J10">
         <f>SUM(J2:J9)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K10">
         <f>SUM(K2:K9)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Erweitern des Hauptmenüs, Animation und Darstellung der Daily Events</t>
   </si>
   <si>
-    <t>Knöpfel</t>
-  </si>
-  <si>
     <t>Knöfel</t>
   </si>
   <si>
@@ -273,7 +270,7 @@
     <t>very high</t>
   </si>
   <si>
-    <t>?</t>
+    <t>review</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +673,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -690,10 +687,10 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +698,10 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +709,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +720,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +731,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -749,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -811,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -830,8 +827,11 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -851,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -930,8 +930,11 @@
       <c r="E8">
         <v>15</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,7 +945,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -951,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -962,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -971,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -982,13 +985,16 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
         <v>10</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>80</v>
@@ -1002,13 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
         <v>10</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>80</v>
@@ -1022,7 +1031,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1031,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1051,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1062,7 +1071,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1071,7 +1080,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,6 +1093,14 @@
       <c r="E16" s="5">
         <f>180 - SUM(E2:E15)</f>
         <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f>180 - SUM(F2:F15)</f>
+        <v>180</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="F16:G16" si="0">180 - SUM(G2:G15)</f>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1099,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1192,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1203,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1215,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1227,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1241,10 +1258,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1258,8 +1275,11 @@
       <c r="I4">
         <v>6</v>
       </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1273,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -1297,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1335,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1346,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
@@ -1361,13 +1381,16 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1378,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -1398,17 +1421,17 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
-        <v>85</v>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
@@ -1421,7 +1444,7 @@
       </c>
       <c r="K10">
         <f>SUM(K2:K9)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -271,6 +272,69 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>Life up Tracking Geodaten</t>
+  </si>
+  <si>
+    <t>MongoDb Server</t>
+  </si>
+  <si>
+    <t>PatientenApp</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Life Up Activity State Pattern implementieren</t>
+  </si>
+  <si>
+    <t>Calendar Gui Implementieren</t>
+  </si>
+  <si>
+    <t>Termine Anzeigen</t>
+  </si>
+  <si>
+    <t>Life Ubersicht anzeigen dynamisch</t>
+  </si>
+  <si>
+    <t>Life Up erinnerung implentieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foto Upload Life up </t>
+  </si>
+  <si>
+    <t>Generische erinnerungs funktion implementieren</t>
+  </si>
+  <si>
+    <t>Medication dynamisch implementieren / daten von Db beziehen</t>
+  </si>
+  <si>
+    <t>Medication erinnerungsfunktion implementieren</t>
+  </si>
+  <si>
+    <t>Emergcency DB Anbindung hinzufügen / dynamisch implementieren</t>
+  </si>
+  <si>
+    <t>Navigation verbessern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas </t>
+  </si>
+  <si>
+    <t>unterstützung erinnerungsfunktion generisch</t>
+  </si>
+  <si>
+    <t>Life Up</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Emergency</t>
   </si>
 </sst>
 </file>
@@ -328,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -346,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -746,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1145,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,7 +1164,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" ref="F16:G16" si="0">180 - SUM(G2:G15)</f>
+        <f t="shared" ref="G16" si="0">180 - SUM(G2:G15)</f>
         <v>154</v>
       </c>
     </row>
@@ -1116,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,4 +1515,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f>SUM(F2:F15)</f>
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <f>SUM(G2:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H2:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +1579,12 @@
       <c r="F2">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1598,6 +1604,15 @@
       </c>
       <c r="F3">
         <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1851,11 +1866,11 @@
       </c>
       <c r="G16">
         <f>SUM(G2:G11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <f>SUM(H2:H11)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -298,21 +298,9 @@
     <t>Life Ubersicht anzeigen dynamisch</t>
   </si>
   <si>
-    <t>Life Up erinnerung implentieren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Foto Upload Life up </t>
   </si>
   <si>
-    <t>Generische erinnerungs funktion implementieren</t>
-  </si>
-  <si>
-    <t>Medication dynamisch implementieren / daten von Db beziehen</t>
-  </si>
-  <si>
-    <t>Medication erinnerungsfunktion implementieren</t>
-  </si>
-  <si>
     <t>Emergcency DB Anbindung hinzufügen / dynamisch implementieren</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
     <t xml:space="preserve">Lukas </t>
   </si>
   <si>
-    <t>unterstützung erinnerungsfunktion generisch</t>
-  </si>
-  <si>
     <t>Life Up</t>
   </si>
   <si>
@@ -335,6 +320,24 @@
   </si>
   <si>
     <t>Emergency</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>unterstützung Erinnerungsfunktion generisch</t>
+  </si>
+  <si>
+    <t>Generische Erinnerungsfunktion implementieren</t>
+  </si>
+  <si>
+    <t>Life Up Erinnerung implentieren</t>
+  </si>
+  <si>
+    <t>Medication dynamisch implementieren / Daten von DB beziehen</t>
+  </si>
+  <si>
+    <t>Medication Erinnerungsfunktion implementieren</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,358 +1522,476 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G15">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <f>SUM(F2:F15)</f>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f>SUM(G2:G15)</f>
         <v>120</v>
-      </c>
-      <c r="G16">
-        <f>SUM(G2:G11)</f>
-        <v>4</v>
       </c>
       <c r="H16">
         <f>SUM(H2:H11)</f>
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>SUM(I2:I11)</f>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,11 +1589,14 @@
       <c r="G2">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
       <c r="I2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1680,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
@@ -1738,7 +1741,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
@@ -1912,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>101</v>
@@ -1987,11 +1990,11 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H11)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <f>SUM(I2:I11)</f>
-        <v>20.5</v>
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId4"/>
+    <sheet name="sprint3 backlog" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -338,6 +339,66 @@
   </si>
   <si>
     <t>Medication Erinnerungsfunktion implementieren</t>
+  </si>
+  <si>
+    <t>done?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>Life Up Eerinnerung generisch*</t>
+  </si>
+  <si>
+    <t>Termine Anzeigen*</t>
+  </si>
+  <si>
+    <t>Life Ubersicht anzeigen dynamisch*</t>
+  </si>
+  <si>
+    <t>Life Up Erinnerung implentieren*</t>
+  </si>
+  <si>
+    <t>Generische Erinnerungsfunktion implementieren*</t>
+  </si>
+  <si>
+    <t>Medication dynamisch implementieren / Daten von DB beziehen*</t>
+  </si>
+  <si>
+    <t>Medication Erinnerungsfunktion implementieren*</t>
+  </si>
+  <si>
+    <t>*inkl. Unit tests</t>
+  </si>
+  <si>
+    <t>LifeUp Overview / Levelanzeige*</t>
+  </si>
+  <si>
+    <t>Achievments LifeUp / statistik*</t>
+  </si>
+  <si>
+    <t>State Pattern mit GUI verknüpfen*</t>
+  </si>
+  <si>
+    <t>Notfallplan fertig implenetieren /testen*</t>
+  </si>
+  <si>
+    <t>Kontakte</t>
+  </si>
+  <si>
+    <t>Kontakte anzeige implementieren /testen /fertigstellen*</t>
+  </si>
+  <si>
+    <t>Funktionales Testen / Code Review</t>
+  </si>
+  <si>
+    <t>Navigation in App einfügen / Hauptmenü*</t>
+  </si>
+  <si>
+    <t>almost done</t>
+  </si>
+  <si>
+    <t>alle</t>
   </si>
 </sst>
 </file>
@@ -395,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -414,6 +475,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -815,13 +877,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -899,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -919,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -959,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -979,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1002,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1065,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,7 +1210,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>101</v>
@@ -1682,11 +1744,14 @@
       <c r="G5">
         <v>15</v>
       </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
       <c r="I5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1711,11 +1776,14 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,11 +1808,14 @@
       <c r="G7">
         <v>15</v>
       </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
       <c r="I7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1769,11 +1840,14 @@
       <c r="G8">
         <v>5</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,11 +1872,14 @@
       <c r="G9">
         <v>10</v>
       </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -1885,11 +1962,14 @@
       <c r="G12">
         <v>15</v>
       </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
       <c r="I12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1914,11 +1994,14 @@
       <c r="G13">
         <v>10</v>
       </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
       <c r="I13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,11 +2055,14 @@
       <c r="G15">
         <v>5</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,11 +2076,477 @@
       </c>
       <c r="H16">
         <f>SUM(H2:H11)</f>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <f>SUM(I2:I11)</f>
-        <v>29.5</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <f>SUM(G2:G19)</f>
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H2:H7)</f>
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <f>SUM(I2:I7)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" tabRatio="662" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Medikation anzeigen</t>
   </si>
   <si>
-    <t>Terminübersicht anzeigen</t>
-  </si>
-  <si>
     <t>Termin anzeigen</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>anzeigen Live Up aktivitäen</t>
-  </si>
-  <si>
-    <t>Kalender mit Terminübersicht</t>
   </si>
   <si>
     <t>Einzelner Termin anzeigen (Appoinment) mit rückrufkontakt</t>
@@ -475,7 +469,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -803,7 +797,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -814,57 +808,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -874,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +920,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -935,10 +929,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -949,7 +943,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -958,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -972,7 +966,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -980,8 +974,11 @@
       <c r="E4">
         <v>5</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1000,241 +997,240 @@
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5">
-        <f>180 - SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <f>180 - SUM(F2:F15)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
+        <f>180 - SUM(E2:E14)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <f>180 - SUM(F2:F14)</f>
         <v>180</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" ref="G16" si="0">180 - SUM(G2:G15)</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="0">180 - SUM(G2:G14)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1246,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,19 +1308,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1339,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1350,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1374,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1385,19 +1381,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1409,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1420,19 +1416,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1447,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1458,19 +1454,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1485,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1496,22 +1492,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1520,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1531,19 +1527,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1555,13 +1551,13 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
@@ -1587,7 +1583,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,16 +1630,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1658,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,16 +1662,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1690,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,16 +1694,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1719,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,16 +1723,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1751,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1759,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1783,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1791,16 +1787,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1815,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1823,16 +1819,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1847,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,16 +1851,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1879,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,16 +1883,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1908,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1916,16 +1912,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1937,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,16 +1941,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1969,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1977,16 +1973,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2001,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,16 +2005,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2030,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,16 +2034,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2062,12 +2058,12 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -2092,8 +2088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4800" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,16 +2136,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -2163,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2171,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2195,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2203,16 +2200,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2221,7 +2218,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,16 +2226,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2253,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2261,16 +2258,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2279,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2287,16 +2284,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2308,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2316,16 +2313,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2340,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2348,16 +2345,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2369,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,16 +2374,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2395,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2403,16 +2400,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2421,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,16 +2426,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2447,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2455,16 +2452,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2473,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2481,16 +2478,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2499,24 +2496,24 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -2524,16 +2521,13 @@
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2088,8 +2088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4800" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7545"/>
+      <selection activeCell="D14" sqref="D14"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Medication Erinnerungsfunktion implementieren</t>
   </si>
   <si>
-    <t>done?</t>
-  </si>
-  <si>
     <t xml:space="preserve">General </t>
   </si>
   <si>
@@ -393,6 +390,12 @@
   </si>
   <si>
     <t>alle</t>
+  </si>
+  <si>
+    <t>Erinnerung Generisch</t>
+  </si>
+  <si>
+    <t>siehe 15</t>
   </si>
 </sst>
 </file>
@@ -868,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +889,7 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -912,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -928,14 +931,17 @@
       <c r="E2" s="1">
         <v>30</v>
       </c>
+      <c r="F2" s="1">
+        <v>17</v>
+      </c>
       <c r="G2" s="1">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -951,6 +957,9 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
       <c r="G3">
         <v>14</v>
       </c>
@@ -958,7 +967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -978,10 +987,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1066,14 +1078,20 @@
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1112,14 +1130,17 @@
       <c r="E10">
         <v>10</v>
       </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1165,7 +1186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1188,7 +1209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1208,24 +1229,43 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="D15" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <f>180 - SUM(E2:E14)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <f>180 - SUM(F2:F14)</f>
-        <v>180</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" ref="G15" si="0">180 - SUM(G2:G14)</f>
+        <v>145</v>
+      </c>
+      <c r="G16" s="5">
+        <f>180 - SUM(G2:G14)</f>
         <v>89</v>
       </c>
     </row>
@@ -2088,9 +2128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7545"/>
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5700"/>
+      <selection activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2134,10 +2174,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -2155,13 +2195,13 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2169,7 +2209,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -2201,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -2227,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
@@ -2259,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -2285,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -2314,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -2346,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -2375,7 +2415,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
@@ -2401,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>95</v>
@@ -2427,7 +2467,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -2453,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -2479,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>43</v>
@@ -2502,10 +2542,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -2525,7 +2565,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>71</v>
@@ -2537,11 +2577,11 @@
       </c>
       <c r="H20">
         <f>SUM(H2:H7)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I20">
         <f>SUM(I2:I7)</f>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan\Desktop\ABCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId4"/>
     <sheet name="sprint3 backlog" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -483,14 +488,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,9 +536,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,11 +1210,14 @@
       <c r="E13">
         <v>15</v>
       </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
       <c r="G13">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1262,11 +1273,11 @@
       </c>
       <c r="F16" s="5">
         <f>180 - SUM(F2:F14)</f>
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G16" s="5">
         <f>180 - SUM(G2:G14)</f>
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2128,9 +2139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5700"/>
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I13" sqref="I13"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2432,8 +2443,14 @@
       <c r="G10">
         <v>5</v>
       </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,8 +2475,14 @@
       <c r="G11">
         <v>5</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2484,8 +2507,14 @@
       <c r="G12">
         <v>10</v>
       </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan\Desktop\ABCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="10005" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -350,12 +350,6 @@
   </si>
   <si>
     <t>Life Ubersicht anzeigen dynamisch*</t>
-  </si>
-  <si>
-    <t>Life Up Erinnerung implentieren*</t>
-  </si>
-  <si>
-    <t>Generische Erinnerungsfunktion implementieren*</t>
   </si>
   <si>
     <t>Medication dynamisch implementieren / Daten von DB beziehen*</t>
@@ -480,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,7 +782,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -881,11 +875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
@@ -998,7 +992,7 @@
         <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1096,7 +1090,7 @@
         <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1165,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1191,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1240,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1248,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1277,7 +1271,7 @@
       </c>
       <c r="G16" s="5">
         <f>180 - SUM(G2:G14)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -1297,7 +1291,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1637,7 +1631,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
@@ -2137,15 +2131,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="5700"/>
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J7" sqref="A6:J7"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -2252,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2299,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -2307,25 +2301,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>78</v>
@@ -2333,25 +2333,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2362,71 +2362,74 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>95</v>
@@ -2441,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -2455,77 +2458,65 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
+      <c r="A13" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>43</v>
@@ -2537,80 +2528,28 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="5" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <f>SUM(G2:G19)</f>
-        <v>89</v>
-      </c>
-      <c r="H20">
-        <f>SUM(H2:H7)</f>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f>SUM(G2:G17)</f>
+        <v>79</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H2:H5)</f>
         <v>41</v>
       </c>
-      <c r="I20">
-        <f>SUM(I2:I7)</f>
-        <v>31</v>
+      <c r="I18">
+        <f>SUM(I2:I5)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum.xlsx
+++ b/doc/task10/scrum.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId4"/>
     <sheet name="sprint3 backlog" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -474,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -530,9 +525,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,7 +597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -782,7 +777,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -875,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
@@ -985,6 +980,9 @@
       <c r="E4">
         <v>5</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -1011,8 +1009,11 @@
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
       <c r="G5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -1034,6 +1035,9 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1057,8 +1061,11 @@
       <c r="E7">
         <v>15</v>
       </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
       <c r="G7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>79</v>
@@ -1109,6 +1116,9 @@
       <c r="E9">
         <v>5</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1158,6 +1168,9 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
       <c r="G11">
         <v>16</v>
       </c>
@@ -1181,6 +1194,9 @@
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
       <c r="G12">
         <v>5</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>23</v>
@@ -1230,6 +1246,9 @@
       <c r="E14">
         <v>55</v>
       </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
       <c r="G14">
         <v>13</v>
       </c>
@@ -1266,12 +1285,12 @@
         <v>10</v>
       </c>
       <c r="F16" s="5">
-        <f>180 - SUM(F2:F14)</f>
-        <v>137</v>
+        <f>180 - SUM(F2:F15)</f>
+        <v>35</v>
       </c>
       <c r="G16" s="5">
-        <f>180 - SUM(G2:G14)</f>
-        <v>78</v>
+        <f>180 - SUM(G2:G15)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -1291,7 +1310,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1631,7 +1650,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
@@ -2133,13 +2152,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5700"/>
-      <selection activeCell="J7" sqref="A6:J7"/>
+      <selection activeCell="I5" sqref="I5"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -2263,6 +2282,12 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>99</v>
       </c>
@@ -2325,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>78</v>
@@ -2352,6 +2377,9 @@
       </c>
       <c r="G7">
         <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2478,8 +2506,14 @@
       <c r="G11">
         <v>2</v>
       </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,6 +2536,12 @@
         <v>3</v>
       </c>
       <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
       <c r="J12" t="s">
